--- a/Docs/M230_params.xlsx
+++ b/Docs/M230_params.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_PI_Projects\PollServer\Docs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="90" windowWidth="18060" windowHeight="8580"/>
+    <workbookView xWindow="360" yWindow="96" windowWidth="18060" windowHeight="8580"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621" refMode="R1C1"/>
+  <calcPr calcId="162913" refMode="R1C1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="57">
   <si>
     <t>Наименование</t>
   </si>
@@ -160,12 +165,39 @@
   </si>
   <si>
     <t>фаза и т.д. (до 4 вкл.)</t>
+  </si>
+  <si>
+    <t>Ошибки прибора</t>
+  </si>
+  <si>
+    <t>Собственные коды ошибок</t>
+  </si>
+  <si>
+    <t>Напряжение батареи менее 2,2 В</t>
+  </si>
+  <si>
+    <t>Напряжение батареи менее 2,65 В</t>
+  </si>
+  <si>
+    <t>0000.0001</t>
+  </si>
+  <si>
+    <t>0000.0010</t>
+  </si>
+  <si>
+    <t>Обе ошибки по батарее</t>
+  </si>
+  <si>
+    <t>0000.0011</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;-  в бинарном виде, нужно парсить</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -264,7 +296,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -292,6 +324,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -301,6 +337,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -349,7 +388,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -384,7 +423,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -593,23 +632,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.7265625" customWidth="1"/>
-    <col min="2" max="2" width="15.453125" customWidth="1"/>
-    <col min="3" max="3" width="13.54296875" customWidth="1"/>
+    <col min="1" max="1" width="31.77734375" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" customWidth="1"/>
     <col min="4" max="4" width="9" customWidth="1"/>
-    <col min="5" max="5" width="29.7265625" customWidth="1"/>
-    <col min="6" max="6" width="16.453125" customWidth="1"/>
+    <col min="5" max="5" width="33.88671875" customWidth="1"/>
+    <col min="6" max="6" width="16.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>36</v>
       </c>
@@ -617,12 +656,12 @@
       <c r="D1" s="5"/>
       <c r="F1" s="13"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B2" s="14">
-        <v>42209</v>
+        <v>43343</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -631,10 +670,10 @@
       </c>
       <c r="F2" s="14">
         <f ca="1">TODAY()</f>
-        <v>42209</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+        <v>43343</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>38</v>
       </c>
@@ -644,7 +683,7 @@
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
@@ -664,7 +703,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
@@ -684,7 +723,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
@@ -704,7 +743,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
@@ -724,7 +763,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>14</v>
       </c>
@@ -744,247 +783,233 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
+    <row r="10" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
+      <c r="D10" s="8">
+        <v>99</v>
+      </c>
       <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-    </row>
-    <row r="11" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="6" t="s">
+      <c r="F10" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-    </row>
-    <row r="12" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+    </row>
+    <row r="13" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B13" s="9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="3" t="s">
+    <row r="14" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B14" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B14" s="3" t="s">
+    <row r="15" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B15" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="6" t="s">
+    <row r="16" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-    </row>
-    <row r="16" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="3"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-    </row>
-    <row r="17" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B16" s="7"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+    </row>
+    <row r="17" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-    </row>
-    <row r="18" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="6" t="s">
+      <c r="C17" s="9"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+    </row>
+    <row r="18" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="7"/>
-    </row>
-    <row r="19" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="2" t="s">
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="7"/>
+    </row>
+    <row r="20" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B20" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C20" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D20" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E20" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="F20" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="3" t="s">
+    <row r="21" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B21" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C21" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D20" s="8">
+      <c r="D21" s="8">
         <v>5</v>
       </c>
-      <c r="E20" s="9" t="s">
+      <c r="E21" s="9" t="s">
         <v>15</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D21" s="8">
-        <v>6</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>16</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="D22" s="8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D23" s="8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="3"/>
-    </row>
-    <row r="25" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A25" s="6" t="s">
+    <row r="24" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" s="8">
+        <v>8</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="3"/>
+    </row>
+    <row r="26" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="7"/>
-    </row>
-    <row r="26" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A26" s="2" t="s">
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="7"/>
+    </row>
+    <row r="27" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B27" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C27" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D27" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="E27" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="F27" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A27" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D27" s="8">
-        <v>0</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D28" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28" s="9" t="s">
         <v>35</v>
@@ -993,18 +1018,18 @@
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D29" s="15">
-        <v>2</v>
+        <v>19</v>
+      </c>
+      <c r="D29" s="8">
+        <v>1</v>
       </c>
       <c r="E29" s="9" t="s">
         <v>35</v>
@@ -1013,18 +1038,18 @@
         <v>42</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D30" s="15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E30" s="9" t="s">
         <v>35</v>
@@ -1033,9 +1058,81 @@
         <v>42</v>
       </c>
     </row>
+    <row r="31" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D31" s="15">
+        <v>3</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A35" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="7"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="D36" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="E36" t="s">
+        <v>56</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>50</v>
+      </c>
+      <c r="D37" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="F37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>54</v>
+      </c>
+      <c r="D38" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="F38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D39" s="18"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D40" s="18"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1045,7 +1142,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1057,7 +1154,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Docs/M230_params.xlsx
+++ b/Docs/M230_params.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="58">
   <si>
     <t>Наименование</t>
   </si>
@@ -192,6 +192,9 @@
   </si>
   <si>
     <t xml:space="preserve"> &lt;-  в бинарном виде, нужно парсить</t>
+  </si>
+  <si>
+    <t>Чтение ошибок</t>
   </si>
 </sst>
 </file>
@@ -634,8 +637,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -643,7 +646,7 @@
     <col min="1" max="1" width="31.77734375" customWidth="1"/>
     <col min="2" max="2" width="15.44140625" customWidth="1"/>
     <col min="3" max="3" width="13.5546875" customWidth="1"/>
-    <col min="4" max="4" width="9" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" customWidth="1"/>
     <col min="5" max="5" width="33.88671875" customWidth="1"/>
     <col min="6" max="6" width="16.44140625" customWidth="1"/>
   </cols>
@@ -661,7 +664,7 @@
         <v>40</v>
       </c>
       <c r="B2" s="14">
-        <v>43343</v>
+        <v>43382</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -670,7 +673,7 @@
       </c>
       <c r="F2" s="14">
         <f ca="1">TODAY()</f>
-        <v>43343</v>
+        <v>43382</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
@@ -961,61 +964,44 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="3"/>
-    </row>
-    <row r="26" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="6" t="s">
+      <c r="A25" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D25" s="15">
+        <v>99</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="7"/>
-    </row>
-    <row r="27" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="7"/>
+    </row>
+    <row r="28" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B28" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C28" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D28" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="E28" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="F28" s="2" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D28" s="8">
-        <v>0</v>
-      </c>
-      <c r="E28" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
@@ -1023,13 +1009,13 @@
         <v>27</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D29" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29" s="9" t="s">
         <v>35</v>
@@ -1040,16 +1026,16 @@
     </row>
     <row r="30" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D30" s="15">
-        <v>2</v>
+        <v>19</v>
+      </c>
+      <c r="D30" s="8">
+        <v>1</v>
       </c>
       <c r="E30" s="9" t="s">
         <v>35</v>
@@ -1063,13 +1049,13 @@
         <v>28</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D31" s="15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E31" s="9" t="s">
         <v>35</v>
@@ -1078,54 +1064,71 @@
         <v>42</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A35" s="6" t="s">
+    <row r="32" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D32" s="15">
+        <v>3</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A36" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="7"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="17" t="s">
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="7"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="D36" s="18" t="s">
+      <c r="D37" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E37" t="s">
         <v>56</v>
       </c>
-      <c r="F36">
+      <c r="F37">
         <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>50</v>
-      </c>
-      <c r="D37" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="F37">
-        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
+        <v>50</v>
+      </c>
+      <c r="D38" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="F38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
         <v>54</v>
       </c>
-      <c r="D38" s="18" t="s">
+      <c r="D39" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="F38">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D39" s="18"/>
+      <c r="F39">
+        <v>3</v>
+      </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D40" s="18"/>

--- a/Docs/M230_params.xlsx
+++ b/Docs/M230_params.xlsx
@@ -637,8 +637,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F42" sqref="F42"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -673,7 +673,7 @@
       </c>
       <c r="F2" s="14">
         <f ca="1">TODAY()</f>
-        <v>43382</v>
+        <v>43385</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">

--- a/Docs/M230_params.xlsx
+++ b/Docs/M230_params.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="96" windowWidth="18060" windowHeight="8580"/>
+    <workbookView xWindow="360" yWindow="90" windowWidth="18060" windowHeight="8580"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,7 @@
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913" refMode="R1C1"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -637,21 +638,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.77734375" customWidth="1"/>
-    <col min="2" max="2" width="15.44140625" customWidth="1"/>
-    <col min="3" max="3" width="13.5546875" customWidth="1"/>
-    <col min="4" max="4" width="10.44140625" customWidth="1"/>
-    <col min="5" max="5" width="33.88671875" customWidth="1"/>
-    <col min="6" max="6" width="16.44140625" customWidth="1"/>
+    <col min="1" max="1" width="31.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" customWidth="1"/>
+    <col min="5" max="5" width="33.85546875" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>36</v>
       </c>
@@ -659,7 +660,7 @@
       <c r="D1" s="5"/>
       <c r="F1" s="13"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>40</v>
       </c>
@@ -673,10 +674,10 @@
       </c>
       <c r="F2" s="14">
         <f ca="1">TODAY()</f>
-        <v>43385</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+        <v>43442</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>38</v>
       </c>
@@ -686,7 +687,7 @@
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
@@ -706,7 +707,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
@@ -726,7 +727,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
@@ -746,7 +747,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
@@ -766,7 +767,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>14</v>
       </c>
@@ -786,7 +787,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>48</v>
       </c>
@@ -800,7 +801,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>37</v>
       </c>
@@ -810,12 +811,12 @@
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
     </row>
-    <row r="13" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B13" s="9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>44</v>
       </c>
@@ -823,12 +824,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>39</v>
       </c>
@@ -838,14 +839,14 @@
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
     </row>
-    <row r="17" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="C17" s="9"/>
       <c r="D17" s="10"/>
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
     </row>
-    <row r="18" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -853,7 +854,7 @@
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
     </row>
-    <row r="19" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>22</v>
       </c>
@@ -863,7 +864,7 @@
       <c r="E19" s="12"/>
       <c r="F19" s="7"/>
     </row>
-    <row r="20" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>0</v>
       </c>
@@ -883,7 +884,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>27</v>
       </c>
@@ -903,7 +904,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>28</v>
       </c>
@@ -923,7 +924,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>29</v>
       </c>
@@ -943,7 +944,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>30</v>
       </c>
@@ -963,7 +964,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>57</v>
       </c>
@@ -974,7 +975,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>43</v>
       </c>
@@ -984,7 +985,7 @@
       <c r="E27" s="12"/>
       <c r="F27" s="7"/>
     </row>
-    <row r="28" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>0</v>
       </c>
@@ -1004,7 +1005,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>27</v>
       </c>
@@ -1024,7 +1025,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>27</v>
       </c>
@@ -1044,7 +1045,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>28</v>
       </c>
@@ -1064,7 +1065,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>28</v>
       </c>
@@ -1084,7 +1085,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>49</v>
       </c>
@@ -1094,7 +1095,7 @@
       <c r="E36" s="12"/>
       <c r="F36" s="7"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="17" t="s">
         <v>51</v>
       </c>
@@ -1108,7 +1109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>50</v>
       </c>
@@ -1119,7 +1120,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>54</v>
       </c>
@@ -1130,7 +1131,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D40" s="18"/>
     </row>
   </sheetData>
@@ -1145,7 +1146,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1157,7 +1158,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
